--- a/medicine/Psychotrope/Trebbiano_romagnolo/Trebbiano_romagnolo.xlsx
+++ b/medicine/Psychotrope/Trebbiano_romagnolo/Trebbiano_romagnolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Trebbiano romagnolo (parfois Trebbiano della Fiamma, Trebbiano di Romagna ou Trebbiano Romagnolo Bijeli) est un cépage blanc italien de la famille des Trebbiano[1].
+Trebbiano romagnolo (parfois Trebbiano della Fiamma, Trebbiano di Romagna ou Trebbiano Romagnolo Bijeli) est un cépage blanc italien de la famille des Trebbiano.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Trebbiano romagnolo donne un vin blanc neutre doté d'une acidité relevée. Il peut aussi être utilisé pour produire des eaux-de-vie[1]. Le Trebbiano romagnolo se caractérise par une grappe, des feuilles et une baie de taille moyenne. Sa peau est pruineuse, ferme, de couleur vert jaunâtre et parfois légèrement ambrée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Trebbiano romagnolo donne un vin blanc neutre doté d'une acidité relevée. Il peut aussi être utilisé pour produire des eaux-de-vie. Le Trebbiano romagnolo se caractérise par une grappe, des feuilles et une baie de taille moyenne. Sa peau est pruineuse, ferme, de couleur vert jaunâtre et parfois légèrement ambrée.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première apparition de ce cépage dans les écrits remonte à 1303 à Ravenne par Pietro de' Crescenzi[1]. En 2016, selon les statistiques Kym Anderson, 19 059 hectare sont consacrés à la culture de Trebbiano romagnolo, ce qui en fait le 43e cépage le plus cultivé au monde[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première apparition de ce cépage dans les écrits remonte à 1303 à Ravenne par Pietro de' Crescenzi. En 2016, selon les statistiques Kym Anderson, 19 059 hectare sont consacrés à la culture de Trebbiano romagnolo, ce qui en fait le 43e cépage le plus cultivé au monde.
 </t>
         </is>
       </c>
